--- a/Examples.Library/src/main/resources/xlsx/Template_SetGroupType.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Template_SetGroupType.xlsx
@@ -1,65 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D265F33-9223-4BB6-BC32-D9D78E9C33A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="2172" windowWidth="23256" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3636" yWindow="1116" windowWidth="25164" windowHeight="13704"/>
   </bookViews>
   <sheets>
-    <sheet name="LineReport" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>Team</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">Business Name: </t>
+  </si>
+  <si>
+    <t>E-Commerce</t>
+  </si>
+  <si>
+    <t>Quarterly Results</t>
+  </si>
+  <si>
+    <t>Q4 Sales</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Merge group(default)</t>
+  </si>
+  <si>
     <t>Normal group</t>
   </si>
   <si>
-    <t>Merge group(default)</t>
-  </si>
-  <si>
-    <t>Reapt group</t>
-  </si>
-  <si>
     <t>List group</t>
   </si>
   <si>
+    <t>Repeat group</t>
+  </si>
+  <si>
+    <t>{{ds.category}}</t>
+  </si>
+  <si>
     <t>{{ds.name}}</t>
   </si>
   <si>
-    <t>{{ds.team(G=R)}}</t>
-  </si>
-  <si>
-    <t>{{ds.team}}</t>
-  </si>
-  <si>
-    <t>{{ds.team(G=N)}}</t>
-  </si>
-  <si>
-    <t>{{ds.team(G=L)}}</t>
+    <t>{{ds.category(G=N)}}</t>
+  </si>
+  <si>
+    <t>{{ds.category(G=R)}}</t>
+  </si>
+  <si>
+    <t>{{ds.category(G=L)}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +82,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,8 +96,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,17 +158,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,27 +171,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1D4F5D"/>
+      <color rgb="FF1A4652"/>
+      <color rgb="FF0F282F"/>
+      <color rgb="FF215A69"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -148,6 +263,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1005681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>489311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="200025"/>
+          <a:ext cx="615156" cy="615156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1482725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>488373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1902C5A2-2CDB-E24F-93E5-EBF33A24376A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5626100" y="1066800"/>
+          <a:ext cx="1508125" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -161,44 +381,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -231,9 +451,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -272,238 +492,378 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="E12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="17" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
+      <c r="C17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Examples.Library/src/main/resources/xlsx/Template_SetGroupType.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Template_SetGroupType.xlsx
@@ -269,26 +269,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1544784</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1005681</xdr:colOff>
+      <xdr:colOff>1471915</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>489311</xdr:rowOff>
+      <xdr:rowOff>501535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -307,58 +301,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="200025"/>
-          <a:ext cx="615156" cy="615156"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1482725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>488373</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1902C5A2-2CDB-E24F-93E5-EBF33A24376A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5626100" y="1066800"/>
-          <a:ext cx="1508125" cy="482600"/>
+          <a:off x="4121729" y="166254"/>
+          <a:ext cx="3023622" cy="487681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -660,7 +604,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
